--- a/Data/t17.1.xlsx
+++ b/Data/t17.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1663,7 +1663,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1678,17 +1678,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1703,17 +1703,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>68.59999999999999</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1728,17 +1728,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>17.6</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1753,17 +1753,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>82.40000000000001</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1778,17 +1778,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>11.1</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1803,17 +1803,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>88.90000000000001</v>
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1828,17 +1828,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>66.2</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1853,11 +1853,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>33.8</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="58">
@@ -1878,11 +1878,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>30.5</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="59">
@@ -1903,11 +1903,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>69.5</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="60">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>17.2</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="61">
@@ -1953,11 +1953,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>82.8</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1978,11 +1978,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="63">
@@ -2003,11 +2003,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>90</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -2028,11 +2028,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>67.40000000000001</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="65">
@@ -2053,11 +2053,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>32.6</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="66">
@@ -2078,11 +2078,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.4</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="67">
@@ -2103,11 +2103,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>68.59999999999999</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="68">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>18.8</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="69">
@@ -2153,11 +2153,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>81.2</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="70">
@@ -2178,11 +2178,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>10.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -2203,11 +2203,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>89.59999999999999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
@@ -2228,11 +2228,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>67.09999999999999</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="73">
@@ -2253,11 +2253,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="74">
@@ -2278,11 +2278,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>30.3</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="75">
@@ -2303,11 +2303,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>69.7</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="77">
@@ -2353,11 +2353,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="78">
@@ -2378,11 +2378,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="79">
@@ -2403,11 +2403,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>91</v>
+        <v>89.59999999999999</v>
       </c>
     </row>
     <row r="80">
@@ -2428,11 +2428,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>65.3</v>
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -2453,11 +2453,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.7</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="82">
@@ -2478,11 +2478,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>27.4</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="83">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>72.59999999999999</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="84">
@@ -2528,11 +2528,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>17.6</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="85">
@@ -2553,11 +2553,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>82.40000000000001</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="86">
@@ -2578,11 +2578,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>9.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -2603,11 +2603,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>90.09999999999999</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88">
@@ -2628,11 +2628,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>63.2</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="89">
@@ -2653,11 +2653,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>36.8</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="90">
@@ -2678,11 +2678,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>26.1</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="91">
@@ -2703,11 +2703,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>73.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -2728,11 +2728,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>18.1</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="93">
@@ -2753,11 +2753,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>81.90000000000001</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="94">
@@ -2778,11 +2778,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="95">
@@ -2803,11 +2803,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>90.2</v>
+        <v>90.09999999999999</v>
       </c>
     </row>
     <row r="96">
@@ -2828,11 +2828,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>64.7</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="97">
@@ -2853,17 +2853,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.3</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2878,17 +2878,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>39.1</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2903,17 +2903,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>60.9</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2928,17 +2928,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.8</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2953,17 +2953,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>77.2</v>
+        <v>81.90000000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2978,17 +2978,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>17.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3003,17 +3003,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>82.5</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3028,17 +3028,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>68.2</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3053,17 +3053,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.8</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3078,17 +3078,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>38.8</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3103,17 +3103,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>61.2</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3128,17 +3128,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>21.4</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3153,17 +3153,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>78.59999999999999</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3178,17 +3178,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25.3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3203,17 +3203,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>74.7</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3228,17 +3228,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>61.3</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3253,11 +3253,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>38.7</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="114">
@@ -3278,11 +3278,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="115">
@@ -3303,11 +3303,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>64</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="116">
@@ -3328,11 +3328,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>21.4</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="117">
@@ -3353,11 +3353,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>78.59999999999999</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="118">
@@ -3378,11 +3378,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="119">
@@ -3403,11 +3403,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>83.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="120">
@@ -3428,11 +3428,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>63.9</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="121">
@@ -3453,11 +3453,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>36.1</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="122">
@@ -3478,11 +3478,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>39.7</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="123">
@@ -3503,11 +3503,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>60.3</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="124">
@@ -3528,11 +3528,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>23</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="125">
@@ -3553,11 +3553,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>77</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="126">
@@ -3578,11 +3578,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>14.4</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="127">
@@ -3603,11 +3603,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>85.59999999999999</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="128">
@@ -3628,11 +3628,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>66.09999999999999</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="129">
@@ -3653,11 +3653,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>33.9</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="130">
@@ -3678,11 +3678,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>37.9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>62.1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132">
@@ -3728,11 +3728,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>24.6</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="133">
@@ -3753,11 +3753,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>75.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="134">
@@ -3778,11 +3778,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>9.1</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="135">
@@ -3803,11 +3803,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>90.90000000000001</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="136">
@@ -3828,11 +3828,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>66.59999999999999</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="137">
@@ -3853,11 +3853,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>33.4</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="138">
@@ -3878,11 +3878,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>32.7</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="139">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>67.3</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="140">
@@ -3928,11 +3928,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>20.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141">
@@ -3953,11 +3953,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>79.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142">
@@ -3978,11 +3978,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>16.4</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="143">
@@ -4003,11 +4003,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>83.59999999999999</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="144">
@@ -4028,11 +4028,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>68.2</v>
+        <v>66.09999999999999</v>
       </c>
     </row>
     <row r="145">
@@ -4053,11 +4053,611 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Creche e pré-escola</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Privada</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Creche e pré-escola</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Pública</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Ensino Fundamental</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Privada</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Ensino Fundamental</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Pública</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>75.40000000000001</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Ensino Médio</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Privada</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Ensino Médio</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Pública</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>90.90000000000001</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Superior - Graduação</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Privada</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>66.59999999999999</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Superior - Graduação</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Pública</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Creche e pré-escola</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Privada</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="E145" t="n">
+      <c r="E154" t="n">
+        <v>32.7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Creche e pré-escola</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Pública</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Ensino Fundamental</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Privada</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Ensino Fundamental</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Pública</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Ensino Médio</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Privada</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Ensino Médio</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Pública</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>83.59999999999999</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Superior - Graduação</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Privada</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Superior - Graduação</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Pública</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
         <v>31.8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Creche e pré-escola</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Privada</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Creche e pré-escola</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Pública</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>70.40000000000001</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Ensino Fundamental</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Privada</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Ensino Fundamental</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Pública</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Ensino Médio</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Privada</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Ensino Médio</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Pública</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>89.40000000000001</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Superior - Graduação</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Privada</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Superior - Graduação</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Pública</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>35.2</v>
       </c>
     </row>
   </sheetData>
